--- a/ig/ch-lab-report/observations-summary.xlsx
+++ b/ig/ch-lab-report/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="98">
   <si>
     <t>Profile</t>
   </si>
@@ -47,136 +47,265 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ch-lab-observation-albumin-creatinine-urine-ratio</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: Albumin/Creatinine Ratio in Urine</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, LOINC#18719-5, SNOWMED CT#394596001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#32294-1</t>
+  </si>
+  <si>
+    <t>dateTime, Period</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>SNOWMED CT#271075006</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-cbc</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results CBC Panel - Blood by Automated count, Results in sliced component</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, LOINC#18723-7, SNOWMED CT#394916005</t>
+  </si>
+  <si>
+    <t>LOINC#58410-2</t>
+  </si>
+  <si>
+    <t>SNOWMED CT#702659008</t>
+  </si>
+  <si>
+    <t>LOINC#6690-2</t>
+  </si>
+  <si>
+    <t>LOINC#789-8</t>
+  </si>
+  <si>
+    <t>LOINC#718-7</t>
+  </si>
+  <si>
+    <t>LOINC#4544-3</t>
+  </si>
+  <si>
+    <t>LOINC#787-2</t>
+  </si>
+  <si>
+    <t>LOINC#785-6</t>
+  </si>
+  <si>
+    <t>LOINC#786-4</t>
+  </si>
+  <si>
+    <t>LOINC#21000-5</t>
+  </si>
+  <si>
+    <t>LOINC#788-0</t>
+  </si>
+  <si>
+    <t>LOINC#777-3</t>
+  </si>
+  <si>
+    <t>LOINC#32207-3</t>
+  </si>
+  <si>
+    <t>LOINC#32623-1</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-cbc-panel</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results CBC Panel - Blood by Automated count, Results in nested Profiles</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR Profiles</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-obsCode-eu-lab (preferred)</t>
+  </si>
+  <si>
+    <t>SNOWMED CT#703505007</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-ckd-epi-male</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR - CKD-EPI(ASR) Profile for males</t>
+  </si>
+  <si>
+    <t>LOINC#50044-7</t>
+  </si>
+  <si>
+    <t>LOINC#88293-6</t>
+  </si>
+  <si>
+    <t>LOINC#88294-4</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-cr-ckd-epi-2021</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFRcr - CKD-EPI(AS) Creatinin based Profile</t>
+  </si>
+  <si>
+    <t>LOINC#98979-8</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-cr-cys-ckd-epi-2021</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFRcr-cys - CKD-EPI(AS) Creatinin and Cystatin-C based Profile</t>
+  </si>
+  <si>
+    <t>LOINC#98980-6</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-female</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR - CKD-EPI(ASR) Profile for females</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-mdrd-female</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR - MDRD Profile for females</t>
+  </si>
+  <si>
+    <t>LOINC#48643-1</t>
+  </si>
+  <si>
+    <t>LOINC#48642-3</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-mdrd-male</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR - MDRD Profile for males</t>
+  </si>
+  <si>
+    <t>LOINC#70969-1</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-renal-insufficiency-panel</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: Renal Insufficiency Panel</t>
+  </si>
+  <si>
+    <t>SNOWMED CT#723188008</t>
+  </si>
+  <si>
     <t>ch-lab-observation-results-ery-dist-width-ratio</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Erythrocyte distribution width [Ratio] by Automated count</t>
-  </si>
-  <si>
-    <t>null#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>LOINC#788-0</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
+    <t>CH LAB Observation Results: Erythrocyte distribution width [Ratio] by Automated count</t>
   </si>
   <si>
     <t>ch-lab-observation-results-ery-distribution-width</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Erythrocyte distribution width [Entitic volume] by Automated count</t>
-  </si>
-  <si>
-    <t>LOINC#21000-5</t>
+    <t>CH LAB Observation Results: Erythrocyte distribution width [Entitic volume] by Automated count</t>
   </si>
   <si>
     <t>ch-lab-observation-results-hb</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Hemoglobin</t>
-  </si>
-  <si>
-    <t>LOINC#718-7</t>
+    <t>CH LAB Observation Results: Hemoglobin</t>
+  </si>
+  <si>
+    <t>SNOWMED CT#83561000052101</t>
   </si>
   <si>
     <t>ch-lab-observation-results-ht</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Hemotocrit</t>
-  </si>
-  <si>
-    <t>LOINC#4544-3</t>
+    <t>CH LAB Observation Results: Hemotocrit</t>
   </si>
   <si>
     <t>ch-lab-observation-results-laboratory</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Laboratory</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+    <t>CH LAB Observation Results: Laboratory Report</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mch</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Mean Corpuscular Hemoglobin</t>
-  </si>
-  <si>
-    <t>LOINC#785-6</t>
+    <t>CH LAB Observation Results: Mean Corpuscular Hemoglobin</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mchc</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Mean Corpuscular Hemoglobin Concentration</t>
-  </si>
-  <si>
-    <t>LOINC#786-4</t>
+    <t>CH LAB Observation Results: Mean Corpuscular Hemoglobin Concentration</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mcv</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: MeanCorpuscularVolume</t>
-  </si>
-  <si>
-    <t>LOINC#787-2</t>
+    <t>CH LAB Observation Results: MeanCorpuscularVolume</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Platelet Count</t>
-  </si>
-  <si>
-    <t>LOINC#777-3</t>
+    <t>CH LAB Observation Results: Platelet Count</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets-distribution-width</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Platelet Distribution With</t>
-  </si>
-  <si>
-    <t>LOINC#32207-3</t>
+    <t>CH LAB Observation Results: Platelet Distribution With</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets-mean-volume</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: Platelet Mean Volume</t>
-  </si>
-  <si>
-    <t>LOINC#32623-1</t>
+    <t>CH LAB Observation Results: Platelet Mean Volume</t>
   </si>
   <si>
     <t>ch-lab-observation-results-rbc</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: ErythrocyteCount</t>
-  </si>
-  <si>
-    <t>LOINC#789-8</t>
+    <t>CH LAB Observation Results: ErythrocyteCount</t>
   </si>
   <si>
     <t>ch-lab-observation-results-wbc</t>
   </si>
   <si>
-    <t>CH Lab Observation Results: LeucocyteCount</t>
-  </si>
-  <si>
-    <t>LOINC#6690-2</t>
+    <t>CH LAB Observation Results: LeucocyteCount</t>
+  </si>
+  <si>
+    <t>ChLab-observation-panel</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: Panel</t>
+  </si>
+  <si>
+    <t>ChLab-observation-single-test</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: Single Test</t>
   </si>
 </sst>
 </file>
@@ -310,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -383,24 +512,24 @@
         <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
@@ -418,30 +547,30 @@
         <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
@@ -458,25 +587,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>27</v>
-      </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>17</v>
@@ -493,25 +622,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -528,25 +657,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -563,25 +692,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>17</v>
@@ -598,25 +727,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>17</v>
@@ -633,25 +762,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
@@ -668,25 +797,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>17</v>
@@ -703,25 +832,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -738,25 +867,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>17</v>
@@ -773,36 +902,1191 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C22" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s" s="2">
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/ig/ch-lab-report/observations-summary.xlsx
+++ b/ig/ch-lab-report/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="92">
   <si>
     <t>Profile</t>
   </si>
@@ -50,10 +50,10 @@
     <t>ch-lab-observation-albumin-creatinine-urine-ratio</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Albumin/Creatinine Ratio in Urine</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, LOINC#18719-5, SNOWMED CT#394596001</t>
+    <t>CH LAB-Report Observation Results: Albumin/Creatinine Ratio in Urine</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, LOINC#18719-5, SNOMED CT#394596001</t>
   </si>
   <si>
     <t/>
@@ -71,22 +71,34 @@
     <t>optional</t>
   </si>
   <si>
-    <t>SNOWMED CT#271075006</t>
+    <t>SNOMED CT#271075006</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-blood-group</t>
+  </si>
+  <si>
+    <t>CH LAB-Report Observation Results: Blood Group</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, LOINC#18717-9, SNOMED CT#421661004</t>
+  </si>
+  <si>
+    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-obsCode-eu-lab (preferred)</t>
   </si>
   <si>
     <t>ch-lab-observation-cbc</t>
   </si>
   <si>
-    <t>CH LAB Observation Results CBC Panel - Blood by Automated count, Results in sliced component</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, LOINC#18723-7, SNOWMED CT#394916005</t>
+    <t>CH LAB-Report Observation Results CBC Panel - Blood by Automated count, Results in sliced component</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, LOINC#18723-7, SNOMED CT#394916005</t>
   </si>
   <si>
     <t>LOINC#58410-2</t>
   </si>
   <si>
-    <t>SNOWMED CT#702659008</t>
+    <t>SNOMED CT#702659008</t>
   </si>
   <si>
     <t>LOINC#6690-2</t>
@@ -110,12 +122,6 @@
     <t>LOINC#786-4</t>
   </si>
   <si>
-    <t>LOINC#21000-5</t>
-  </si>
-  <si>
-    <t>LOINC#788-0</t>
-  </si>
-  <si>
     <t>LOINC#777-3</t>
   </si>
   <si>
@@ -128,31 +134,31 @@
     <t>ch-lab-observation-cbc-panel</t>
   </si>
   <si>
-    <t>CH LAB Observation Results CBC Panel - Blood by Automated count, Results in nested Profiles</t>
+    <t>CH LAB-Report Observation Results CBC Panel - Blood by Automated count, Results in nested Profiles</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
+    <t>integer, SampledData</t>
+  </si>
+  <si>
     <t>ch-lab-observation-egfr</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: eGFR Profiles</t>
-  </si>
-  <si>
-    <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-obsCode-eu-lab (preferred)</t>
-  </si>
-  <si>
-    <t>SNOWMED CT#703505007</t>
-  </si>
-  <si>
-    <t>ch-lab-observation-egfr-ckd-epi-male</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFR - CKD-EPI(ASR) Profile for males</t>
-  </si>
-  <si>
-    <t>LOINC#50044-7</t>
+    <t>CH LAB Observation Results: eGFR</t>
+  </si>
+  <si>
+    <t>SNOMED CT#703505007</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-ckd-epi-2009</t>
+  </si>
+  <si>
+    <t>CH LAB Observation Results: eGFR-CKD-EPI(ASR) 2009 Profile for blacks and non-blacks</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/observation-code-cdk-epi-2009 (required)</t>
   </si>
   <si>
     <t>LOINC#88293-6</t>
@@ -161,34 +167,22 @@
     <t>LOINC#88294-4</t>
   </si>
   <si>
-    <t>ch-lab-observation-egfr-cr-ckd-epi-2021</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFRcr - CKD-EPI(AS) Creatinin based Profile</t>
-  </si>
-  <si>
-    <t>LOINC#98979-8</t>
-  </si>
-  <si>
-    <t>ch-lab-observation-egfr-cr-cys-ckd-epi-2021</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFRcr-cys - CKD-EPI(AS) Creatinin and Cystatin-C based Profile</t>
-  </si>
-  <si>
-    <t>LOINC#98980-6</t>
-  </si>
-  <si>
-    <t>ch-lab-observation-egfr-female</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFR - CKD-EPI(ASR) Profile for females</t>
-  </si>
-  <si>
-    <t>ch-lab-observation-egfr-mdrd-female</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFR - MDRD Profile for females</t>
+    <t>ch-lab-observation-egfr-ckd-epi-2021</t>
+  </si>
+  <si>
+    <t>CH LAB-Report Observation Results: eGFR-CKD-EPI(AS) 2021 Creatinin/Cystatin-C based Profile</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/observation-code-cdk-epi-2021 (required)</t>
+  </si>
+  <si>
+    <t>ch-lab-observation-egfr-mdrd</t>
+  </si>
+  <si>
+    <t>CH LAB-Report Observation Results: eGFR - MDRD Profile for male and female Patients, components for blacks and non-blacks</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/observation-code-mdrd-male-female (required)</t>
   </si>
   <si>
     <t>LOINC#48643-1</t>
@@ -197,115 +191,103 @@
     <t>LOINC#48642-3</t>
   </si>
   <si>
-    <t>ch-lab-observation-egfr-mdrd-male</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: eGFR - MDRD Profile for males</t>
-  </si>
-  <si>
-    <t>LOINC#70969-1</t>
-  </si>
-  <si>
     <t>ch-lab-observation-renal-insufficiency-panel</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Renal Insufficiency Panel</t>
-  </si>
-  <si>
-    <t>SNOWMED CT#723188008</t>
-  </si>
-  <si>
-    <t>ch-lab-observation-results-ery-dist-width-ratio</t>
-  </si>
-  <si>
-    <t>CH LAB Observation Results: Erythrocyte distribution width [Ratio] by Automated count</t>
+    <t>CH LAB-Report Observation Results: Renal Insufficiency Panel</t>
+  </si>
+  <si>
+    <t>SNOMED CT#723188008</t>
   </si>
   <si>
     <t>ch-lab-observation-results-ery-distribution-width</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Erythrocyte distribution width [Entitic volume] by Automated count</t>
+    <t>CH LAB-Report Observation Results: Erythrocyte distribution width by Automated count</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-lab-report/ValueSet/observation-code-entsvol-ratio (required)</t>
   </si>
   <si>
     <t>ch-lab-observation-results-hb</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Hemoglobin</t>
-  </si>
-  <si>
-    <t>SNOWMED CT#83561000052101</t>
+    <t>CH LAB-Report Observation Results: Hemoglobin</t>
+  </si>
+  <si>
+    <t>SNOMED CT#83561000052101</t>
   </si>
   <si>
     <t>ch-lab-observation-results-ht</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Hemotocrit</t>
+    <t>CH LAB-Report Observation Results: Hemotocrit</t>
   </si>
   <si>
     <t>ch-lab-observation-results-laboratory</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Laboratory Report</t>
+    <t>CH LAB-Report Observation Results: Laboratory Report</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mch</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Mean Corpuscular Hemoglobin</t>
+    <t>CH LAB-Report Observation Results: Mean Corpuscular Hemoglobin MCH</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mchc</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Mean Corpuscular Hemoglobin Concentration</t>
+    <t>CH LAB-Report Observation Results: Mean Corpuscular Hemoglobin Concentration MCHC</t>
   </si>
   <si>
     <t>ch-lab-observation-results-mcv</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: MeanCorpuscularVolume</t>
+    <t>CH LAB-Report Observation Results: MeanCorpuscularVolume MCV</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Platelet Count</t>
+    <t>CH LAB-Report Observation Results: Platelet Count</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets-distribution-width</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Platelet Distribution With</t>
+    <t>CH LAB-Report Observation Results: Platelet Distribution Width</t>
   </si>
   <si>
     <t>ch-lab-observation-results-platelets-mean-volume</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Platelet Mean Volume</t>
+    <t>CH LAB-Report Observation Results: Platelet Mean Volume</t>
   </si>
   <si>
     <t>ch-lab-observation-results-rbc</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: ErythrocyteCount</t>
+    <t>CH LAB-Report Observation Results: ErythrocyteCount</t>
   </si>
   <si>
     <t>ch-lab-observation-results-wbc</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: LeucocyteCount</t>
+    <t>CH LAB-Report Observation Results: LeucocyteCount</t>
   </si>
   <si>
     <t>ChLab-observation-panel</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Panel</t>
+    <t>CH LAB-Report Observation Results: Panel</t>
   </si>
   <si>
     <t>ChLab-observation-single-test</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Single Test</t>
+    <t>CH LAB-Report Observation Results: Single Test</t>
   </si>
 </sst>
 </file>
@@ -439,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -529,11 +511,11 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
@@ -547,30 +529,30 @@
         <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>17</v>
@@ -582,7 +564,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -590,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -599,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -625,7 +607,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
@@ -634,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -660,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -669,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -695,7 +677,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -704,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -730,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -739,7 +721,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -765,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -774,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -800,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -809,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -835,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -844,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -870,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -879,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -905,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -914,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -940,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -949,7 +931,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -972,19 +954,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -993,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1007,10 +989,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1022,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>16</v>
@@ -1037,15 +1019,15 @@
         <v>14</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1054,10 +1036,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>16</v>
@@ -1072,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -1080,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1089,7 +1071,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1115,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1124,7 +1106,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1147,10 +1129,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1159,10 +1141,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>16</v>
@@ -1177,15 +1159,15 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1194,10 +1176,10 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>16</v>
@@ -1212,30 +1194,30 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>17</v>
@@ -1255,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1264,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1287,28 +1269,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1322,22 +1304,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>16</v>
@@ -1352,30 +1334,30 @@
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1387,30 +1369,30 @@
         <v>14</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
@@ -1422,27 +1404,27 @@
         <v>14</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>16</v>
@@ -1457,30 +1439,30 @@
         <v>14</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -1492,30 +1474,30 @@
         <v>14</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>17</v>
@@ -1527,24 +1509,24 @@
         <v>14</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1562,24 +1544,24 @@
         <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1597,24 +1579,24 @@
         <v>14</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1632,24 +1614,24 @@
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1667,62 +1649,62 @@
         <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>16</v>
@@ -1737,33 +1719,33 @@
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1772,27 +1754,27 @@
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>16</v>
@@ -1807,286 +1789,6 @@
         <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K47" t="s" s="2">
         <v>14</v>
       </c>
     </row>
